--- a/docs/CasosPrueba - Validación/CP - Correo Electrónico.xlsx
+++ b/docs/CasosPrueba - Validación/CP - Correo Electrónico.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adri_\source\repos\TDD-ACB-JGA\docs\CasosPrueba - Validación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F7D3C1-7E45-4E12-92B3-DB49F79E1E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4912C928-7B31-470B-A570-3943CD88ED82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12BA3133-949C-4B91-9275-35525239132A}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{12BA3133-949C-4B91-9275-35525239132A}"/>
   </bookViews>
   <sheets>
     <sheet name="CP-VAL-CE-001" sheetId="1" r:id="rId1"/>
+    <sheet name="CP-VAL-CE-002" sheetId="2" r:id="rId2"/>
+    <sheet name="CP-VAL-CE-003" sheetId="3" r:id="rId3"/>
+    <sheet name="CP-VAL-CE-004" sheetId="5" r:id="rId4"/>
+    <sheet name="CP-VAL-CE-005" sheetId="4" r:id="rId5"/>
+    <sheet name="CP-VAL-CE-006" sheetId="6" r:id="rId6"/>
+    <sheet name="CP-VAL-CE-007" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="53">
   <si>
     <t>Nombre Proyecto:</t>
   </si>
@@ -104,25 +110,94 @@
     <t>Desarrollador</t>
   </si>
   <si>
-    <t>texto que posee no posee una @</t>
-  </si>
-  <si>
     <t>comprobar si contiene el carácter @</t>
   </si>
   <si>
     <t>Introducir el texto</t>
   </si>
   <si>
-    <t>Devuelve false.</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>CP-VAL-CE-001</t>
   </si>
   <si>
     <t>RF-1,RF-17</t>
+  </si>
+  <si>
+    <t>No tiene texto delante del @</t>
+  </si>
+  <si>
+    <t>texto que posee posee una @</t>
+  </si>
+  <si>
+    <t>devuelve 0</t>
+  </si>
+  <si>
+    <t>Devuelve 0.</t>
+  </si>
+  <si>
+    <t>CP-VAL-CE-003</t>
+  </si>
+  <si>
+    <t>CP-VAL-CE-002</t>
+  </si>
+  <si>
+    <t>No tiene texto entre @ y .</t>
+  </si>
+  <si>
+    <t>texto que no posee una @</t>
+  </si>
+  <si>
+    <t>texto que posee una @</t>
+  </si>
+  <si>
+    <t>No tiene carcteres delante del @</t>
+  </si>
+  <si>
+    <t>No tiene carcteres entre el @ y el .</t>
+  </si>
+  <si>
+    <t>CP-VAL-CE-004</t>
+  </si>
+  <si>
+    <t>No tiene texto despues del .</t>
+  </si>
+  <si>
+    <t>CP-VAL-CE-005</t>
+  </si>
+  <si>
+    <t>Tiene texto entre @ y .   Pero contine caracteres especiales en este tramo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiene caracteres entre el @ y el . </t>
+  </si>
+  <si>
+    <t>alguno de esos caracteres son especiales</t>
+  </si>
+  <si>
+    <t>CP-VAL-CE-006</t>
+  </si>
+  <si>
+    <t>tiene 0 o 1 caracteres despues del .</t>
+  </si>
+  <si>
+    <t>tiene almenos 2 caracteres despues del .</t>
+  </si>
+  <si>
+    <t>alguno de esos caracteres es especial despues del .</t>
+  </si>
+  <si>
+    <t>tiene caracteres normales o especiales delante del @</t>
+  </si>
+  <si>
+    <t>Comprobación de correos válidos</t>
+  </si>
+  <si>
+    <t>tiene caracteres entre el @ y el . Y ninguno es especial</t>
+  </si>
+  <si>
+    <t>tiene almenos 2 caracteres despues del punto y  ninguno es especial</t>
+  </si>
+  <si>
+    <t>devuelve 1</t>
   </si>
 </sst>
 </file>
@@ -261,22 +336,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -300,6 +366,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -310,7 +385,187 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -658,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764A93F3-67DD-4594-9FAF-AC6E80869C56}">
   <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,10 +927,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
@@ -683,14 +938,14 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
@@ -700,10 +955,10 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
@@ -711,21 +966,21 @@
         <v>16</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -747,71 +1002,71 @@
       <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="C11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>3</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
@@ -823,21 +1078,23 @@
       <c r="B16" s="6">
         <v>1</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="7"/>
+      <c r="C16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>2</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
@@ -845,8 +1102,8 @@
       <c r="B18" s="6">
         <v>3</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
@@ -863,63 +1120,65 @@
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>1</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="C21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>2</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="16"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="4" t="s">
         <v>19</v>
       </c>
@@ -930,6 +1189,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="B4:C4"/>
@@ -946,15 +1212,1952 @@
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="B6:F8"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B14:F14"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+      <formula>"Aprobado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+      <formula>"Pendiente"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+      <formula>"Error"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C19EC5-CF03-4BA9-8F67-E6710432D0F6}">
+  <dimension ref="B2:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>2</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>3</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>2</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="D26">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>"Aprobado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>"Pendiente"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>"Error"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C89A78-9282-4602-ACBD-ABAD14C1CC80}">
+  <dimension ref="B2:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>2</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>3</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>2</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="B9:F9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+      <formula>"Aprobado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>"Pendiente"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+      <formula>"Error"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E46475-EC4F-45CE-BD8C-5D906774FEAF}">
+  <dimension ref="B2:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>2</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>3</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>2</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="B9:F9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>"Aprobado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"Pendiente"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"Error"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2533DD32-75BD-4FB1-ABA4-5F28254995F5}">
+  <dimension ref="B2:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>2</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>3</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>2</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="B9:F9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"Aprobado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"Pendiente"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"Error"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1CC190-BFE2-4E70-ABC0-2781708414B6}">
+  <dimension ref="B2:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>2</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>3</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>2</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="B9:F9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Aprobado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Pendiente"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Error"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26959342-BF2B-4319-8B96-7B2639B757D1}">
+  <dimension ref="B2:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>4</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>2</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>3</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>2</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D25:F26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="B9:F9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D27">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Aprobado"</formula>
     </cfRule>

--- a/docs/CasosPrueba - Validación/CP - Correo Electrónico.xlsx
+++ b/docs/CasosPrueba - Validación/CP - Correo Electrónico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adri_\source\repos\TDD-ACB-JGA\docs\CasosPrueba - Validación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4912C928-7B31-470B-A570-3943CD88ED82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722C07E1-BBBA-477B-9A88-25D9A506B5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{12BA3133-949C-4B91-9275-35525239132A}"/>
   </bookViews>

--- a/docs/CasosPrueba - Validación/CP - Correo Electrónico.xlsx
+++ b/docs/CasosPrueba - Validación/CP - Correo Electrónico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adri_\source\repos\TDD-ACB-JGA\docs\CasosPrueba - Validación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722C07E1-BBBA-477B-9A88-25D9A506B5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA9FC8D-6A49-4531-B1B8-BB7F4BDBDA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{12BA3133-949C-4B91-9275-35525239132A}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="6" xr2:uid="{12BA3133-949C-4B91-9275-35525239132A}"/>
   </bookViews>
   <sheets>
     <sheet name="CP-VAL-CE-001" sheetId="1" r:id="rId1"/>
@@ -182,12 +182,6 @@
     <t>tiene almenos 2 caracteres despues del .</t>
   </si>
   <si>
-    <t>alguno de esos caracteres es especial despues del .</t>
-  </si>
-  <si>
-    <t>tiene caracteres normales o especiales delante del @</t>
-  </si>
-  <si>
     <t>Comprobación de correos válidos</t>
   </si>
   <si>
@@ -198,6 +192,12 @@
   </si>
   <si>
     <t>devuelve 1</t>
+  </si>
+  <si>
+    <t>tiene caracteres normales o entre estos ._%+- delante del @</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alguno de esos caracteres es especial despues del . </t>
   </si>
 </sst>
 </file>
@@ -336,13 +336,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -364,15 +373,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -927,10 +927,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
@@ -942,10 +942,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
@@ -955,10 +955,10 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
@@ -970,13 +970,13 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
@@ -1002,71 +1002,71 @@
       <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>3</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1078,10 +1078,10 @@
       <c r="B16" s="6">
         <v>1</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="7">
         <v>0</v>
       </c>
@@ -1093,8 +1093,8 @@
       <c r="B17" s="6">
         <v>2</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
@@ -1102,8 +1102,8 @@
       <c r="B18" s="6">
         <v>3</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
@@ -1120,65 +1120,65 @@
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>1</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>2</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="12" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="4" t="s">
         <v>19</v>
       </c>
@@ -1189,13 +1189,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="B4:C4"/>
@@ -1212,6 +1205,13 @@
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="B6:F8"/>
     <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <conditionalFormatting sqref="D26">
     <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
@@ -1246,10 +1246,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1261,10 +1261,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
@@ -1274,10 +1274,10 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1289,13 +1289,13 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
@@ -1321,73 +1321,73 @@
       <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>3</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1399,10 +1399,10 @@
       <c r="B16" s="6">
         <v>1</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="7">
         <v>0</v>
       </c>
@@ -1414,8 +1414,8 @@
       <c r="B17" s="6">
         <v>2</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
@@ -1423,8 +1423,8 @@
       <c r="B18" s="6">
         <v>3</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
@@ -1441,65 +1441,65 @@
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>1</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>2</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="12" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="4" t="s">
         <v>19</v>
       </c>
@@ -1510,16 +1510,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
@@ -1527,12 +1523,16 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="D26">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
@@ -1567,10 +1567,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1582,10 +1582,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
@@ -1595,10 +1595,10 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1610,13 +1610,13 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
@@ -1642,73 +1642,73 @@
       <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>3</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1720,10 +1720,10 @@
       <c r="B16" s="6">
         <v>1</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="7">
         <v>0</v>
       </c>
@@ -1735,8 +1735,8 @@
       <c r="B17" s="6">
         <v>2</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
@@ -1744,8 +1744,8 @@
       <c r="B18" s="6">
         <v>3</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
@@ -1762,65 +1762,65 @@
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>1</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>2</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="12" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="4" t="s">
         <v>19</v>
       </c>
@@ -1831,16 +1831,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
@@ -1848,12 +1844,16 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="D26">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
@@ -1875,7 +1875,7 @@
   <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C13" sqref="C13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,10 +1888,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1903,10 +1903,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
@@ -1916,10 +1916,10 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1931,13 +1931,13 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
@@ -1963,75 +1963,75 @@
       <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>3</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
@@ -2043,10 +2043,10 @@
       <c r="B16" s="6">
         <v>1</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="7">
         <v>0</v>
       </c>
@@ -2058,8 +2058,8 @@
       <c r="B17" s="6">
         <v>2</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
@@ -2067,8 +2067,8 @@
       <c r="B18" s="6">
         <v>3</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
@@ -2085,65 +2085,65 @@
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>1</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>2</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="12" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="4" t="s">
         <v>19</v>
       </c>
@@ -2154,16 +2154,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
@@ -2171,12 +2167,16 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="D26">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -2211,10 +2211,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2226,10 +2226,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
@@ -2239,10 +2239,10 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
@@ -2254,13 +2254,13 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
@@ -2286,73 +2286,73 @@
       <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>3</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
@@ -2364,10 +2364,10 @@
       <c r="B16" s="6">
         <v>1</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="7">
         <v>0</v>
       </c>
@@ -2379,8 +2379,8 @@
       <c r="B17" s="6">
         <v>2</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
@@ -2388,8 +2388,8 @@
       <c r="B18" s="6">
         <v>3</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
@@ -2406,65 +2406,65 @@
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>1</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>2</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="12" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="4" t="s">
         <v>19</v>
       </c>
@@ -2475,16 +2475,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
@@ -2492,12 +2488,16 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="D26">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -2532,10 +2532,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2547,10 +2547,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
@@ -2560,10 +2560,10 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
@@ -2575,13 +2575,13 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
@@ -2607,75 +2607,75 @@
       <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>3</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="C13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
@@ -2687,10 +2687,10 @@
       <c r="B16" s="6">
         <v>1</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="7">
         <v>0</v>
       </c>
@@ -2702,8 +2702,8 @@
       <c r="B17" s="6">
         <v>2</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
@@ -2711,8 +2711,8 @@
       <c r="B18" s="6">
         <v>3</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
@@ -2729,65 +2729,65 @@
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>1</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>2</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="12" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="4" t="s">
         <v>19</v>
       </c>
@@ -2798,16 +2798,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
@@ -2815,12 +2811,16 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="D26">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -2842,7 +2842,7 @@
   <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2855,10 +2855,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2870,10 +2870,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
@@ -2883,10 +2883,10 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
@@ -2898,17 +2898,17 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -2930,86 +2930,86 @@
       <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="C12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>3</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="C13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>4</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="C14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
@@ -3021,10 +3021,10 @@
       <c r="B17" s="6">
         <v>1</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="20"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="7">
         <v>1</v>
       </c>
@@ -3036,8 +3036,8 @@
       <c r="B18" s="6">
         <v>2</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
@@ -3045,8 +3045,8 @@
       <c r="B19" s="6">
         <v>3</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
@@ -3063,65 +3063,65 @@
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>1</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="C22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <v>2</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="4" t="s">
         <v>19</v>
       </c>
@@ -3132,16 +3132,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="D25:F26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C10:F10"/>
@@ -3150,12 +3146,16 @@
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D25:F26"/>
+    <mergeCell ref="B27:C27"/>
   </mergeCells>
   <conditionalFormatting sqref="D27">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/docs/CasosPrueba - Validación/CP - Correo Electrónico.xlsx
+++ b/docs/CasosPrueba - Validación/CP - Correo Electrónico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adri_\source\repos\TDD-ACB-JGA\docs\CasosPrueba - Validación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA9FC8D-6A49-4531-B1B8-BB7F4BDBDA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BBDBD8-CFED-48FF-8055-70EAB25361C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="6" xr2:uid="{12BA3133-949C-4B91-9275-35525239132A}"/>
   </bookViews>
@@ -149,12 +149,6 @@
     <t>texto que posee una @</t>
   </si>
   <si>
-    <t>No tiene carcteres delante del @</t>
-  </si>
-  <si>
-    <t>No tiene carcteres entre el @ y el .</t>
-  </si>
-  <si>
     <t>CP-VAL-CE-004</t>
   </si>
   <si>
@@ -194,10 +188,16 @@
     <t>devuelve 1</t>
   </si>
   <si>
-    <t>tiene caracteres normales o entre estos ._%+- delante del @</t>
-  </si>
-  <si>
     <t xml:space="preserve">alguno de esos caracteres es especial despues del . </t>
+  </si>
+  <si>
+    <t>No tiene caracteres delante del @</t>
+  </si>
+  <si>
+    <t>No tiene caracteres entre el @ y el .</t>
+  </si>
+  <si>
+    <t>tiene caracteres normales y puede contener los siguientes especiales ._%+- delante del @</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -1677,7 +1677,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -1899,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -1941,7 +1941,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -1998,7 +1998,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -2009,7 +2009,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -2222,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -2264,7 +2264,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -2321,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -2543,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -2585,7 +2585,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -2642,7 +2642,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -2653,7 +2653,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -2842,7 +2842,7 @@
   <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2866,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -2908,7 +2908,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -2965,7 +2965,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -2976,7 +2976,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -2987,7 +2987,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -3075,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
